--- a/CoreRulebook/Data/Statuses/Statuses.xlsx
+++ b/CoreRulebook/Data/Statuses/Statuses.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -44,65 +44,44 @@
     <t xml:space="preserve">After 7 hours, a \imp{Long Rest} has been completed. </t>
   </si>
   <si>
-    <t xml:space="preserve">Status is terminated upon taking \imp{harm}, or if a suitably stimulus is used </t>
+    <t xml:space="preserve">Status is terminated upon taking \imp{harm}, or if a suitable stimulus is present. </t>
   </si>
   <si>
     <t xml:space="preserve">Blinded</t>
   </si>
   <si>
-    <t xml:space="preserve">A blinded being fails all checks that require sight.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All accuracy checks by the afflicted are considered `blindfighting\apos{}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All attacks on the being get check-advantage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broken Bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a {\it Serious Injury} (see below)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The broken limb cannot be used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any time the broken bone is touched, requires a DV15 Spirit (Endurance) check to prevent howling in pain. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If left to naturally heal, there is a 50\% chance it will set incorrectly, giving permanent check disadvantage until this is rectified. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burned: Mild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mild burn leaves one weak against future changes in temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire and Cold damage are 50\% as effective.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calm Mind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All checks receive a +1 bonus.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This effect is terminated early if the target takes psychic damage</t>
+    <t xml:space="preserve">Physical trauma to the eyeballs, as well as overloading them with a bright light leads to the optic centres shutting down. 
+Status typically lasts for one round per \imp{Power} used, though in exceptional circumstances, may be permanent. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All \imp{Attack} checks by the afflicted are considered \imp{Fighting Blind} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\imp{Resist} checks are performed at a 2d penalty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most checks which rely on vision (i.e. \imp{perception} and \imp{insight} etc.) will automatically fail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prolonged contact with a heat source can leave one with severe tissue damage, and leaves the victim particularly susceptible to changes in temperature. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target is considered \imp{Susceptible} to \imp{Fire} and \imp{Cold} damage. </t>
   </si>
   <si>
     <t xml:space="preserve">Charmed</t>
   </si>
   <si>
-    <t xml:space="preserve">A charmed being percieves their charmer as being a valuable friend and ally. </t>
+    <t xml:space="preserve">Almost always imposed by magical or hypnotic means, the \imp{charmed} status means that the target percieves their charmer as their dearest, friend, and an ally to be protected at all costs. </t>
   </si>
   <si>
     <t xml:space="preserve">A charmed being cannot attack or otherwise target their charmer with negative effects.</t>
   </si>
   <si>
-    <t xml:space="preserve">Charmer has check-advantage on all Charisma checks relating to the target. </t>
+    <t xml:space="preserve">Charmer gains +3d on all \imp{social} checks made against the charmed being </t>
   </si>
   <si>
     <t xml:space="preserve">Confused</t>
@@ -468,7 +447,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -494,6 +473,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -594,12 +577,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -638,7 +621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -651,36 +634,36 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -690,153 +673,153 @@
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="5" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="7" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
         <v>49</v>
       </c>
+      <c r="B14" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="5" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C15" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -846,129 +829,129 @@
       <c r="C18" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="D18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="E18" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
         <v>76</v>
       </c>
+      <c r="B21" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="1" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+    <row r="24" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="E24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="F24" s="1" t="s">
         <v>90</v>
       </c>
+    </row>
+    <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
@@ -980,31 +963,6 @@
       </c>
       <c r="D27" s="1" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Statuses/Statuses.xlsx
+++ b/CoreRulebook/Data/Statuses/Statuses.xlsx
@@ -11,8 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -111,6 +112,12 @@
     <t xml:space="preserve">The target cannot regain health until this condition is removed </t>
   </si>
   <si>
+    <t xml:space="preserve">Removing this condition requires a \imp{Restore} spell of \levelFour{} or greater, or a \imp{First Aid Kit}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every minute spent in the critical condition increases the minimum level of \imp{Restore} spell which can remove it.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deaf</t>
   </si>
   <si>
@@ -133,6 +140,25 @@
   </si>
   <si>
     <t xml:space="preserve">The GM reserves the right to take control of your character for the duration of the effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhausted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhaustion is a measure of how tired a being is, and comes in multiple degrees of severity. A being gains levels in Exhaustion through magical means, or through failing to look after themselves, and going more than 24 hours without rest. They may lose levels through healing, or by finding a place to rest and recover. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\key{Level 0: Fine}  No effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\key{Level 1: Distracted} 1d penalty to all \imp{Mental} checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\key{Level 2: Tired}  1d penalty to all checks (in addition to 1d on \imp{mental} checks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\key{Level 3: Lethargic} \imp{Speed} reduced to zero</t>
   </si>
   <si>
     <t xml:space="preserve">\key{Level 4: Drained} HP and FP maximum reduced by 1</t>
@@ -148,35 +174,16 @@
 These effects are compounding, so a Lethargic character has a 1d penalty to all checks (increased to 2d on mental checks), and has their speed drastically reduced. </t>
   </si>
   <si>
-    <t xml:space="preserve">Exhaustion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exhaustion is a measure of how tired a being is, and comes in multiple degrees of severity. A being gains levels in Exhaustion through magical means, or through failing to look after themselves, and going more than 24 hours without rest. They may lose levels through healing, or by finding a place to rest and recover. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\key{Level 0: Fine}  No effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\key{Level 1: Distracted} 1d penalty to all \imp{Mental} checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\key{Level 2: Tired}  1d penalty to all checks (in addition to 1d on \imp{mental} checks)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\key{Level 3: Lethargic} \imp{Speed} reduced to zero</t>
-  </si>
-  <si>
     <t xml:space="preserve">Frostbite</t>
   </si>
   <si>
     <t xml:space="preserve">Cold temperatures can affect not just the body, but also the mind. </t>
   </si>
   <si>
-    <t xml:space="preserve">A character loses point of \imp{Fortitude}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the character has no more \imp{fortitude} to lose, they instead take \imp{level 5} \imp{psychic damage}. </t>
+    <t xml:space="preserve">A character reduces their maximum \imp{Fortitude} rating by one. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the \imp{Fortitude} track is already filled, in addition take \imp{Level 5 Cold} damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Poisoned</t>
@@ -212,7 +219,7 @@
     <t xml:space="preserve">An \imp{immobilised} creature has been paralyzed by some force, or bound and chained up such that they cannot take actions. </t>
   </si>
   <si>
-    <t xml:space="preserve">A \imp{Stunned} creature can take no actions, and may not move until the effect wears off</t>
+    <t xml:space="preserve">An \imp{Immobilised} creature can take no actions, and may not move until the effect wears off</t>
   </si>
   <si>
     <t xml:space="preserve">They remain aware of their surroundings and can see and hear as normal </t>
@@ -264,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -291,11 +298,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -392,12 +394,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -492,9 +494,9 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -605,175 +607,181 @@
       <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="9" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="163.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E17" s="0"/>
       <c r="F17" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F17"/>
+  <autoFilter ref="A1:J17"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/Statuses/Statuses.xlsx
+++ b/CoreRulebook/Data/Statuses/Statuses.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -145,17 +145,14 @@
     <t xml:space="preserve">Exhausted</t>
   </si>
   <si>
-    <t xml:space="preserve">Exhaustion is a measure of how tired a being is, and comes in multiple degrees of severity. A being gains levels in Exhaustion through magical means, or through failing to look after themselves, and going more than 24 hours without rest. They may lose levels through healing, or by finding a place to rest and recover. 
+    <t xml:space="preserve">Exhaustion is a measure of how tired a being is, and comes in multiple degrees of severity. A being gains levels in Exhaustion through magical means, or through failing to look after themselves, and going more than 24 hours without rest.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">\key{Level 0: Fine}  No effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\key{Level 1: Distracted} 1d penalty to all \imp{Mental} checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\key{Level 2: Tired}  1d penalty to all checks (in addition to 1d on \imp{mental} checks)</t>
+    <t xml:space="preserve">\key{Level 1: Distracted} 1d penalty to all \imp{Mental} checks. You cannot recover \imp{Fortitude} points by taking a \imp{Long Rest}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\key{Level 2: Tired}  1d penalty to all checks (so 1d on \imp{mental} checks)</t>
   </si>
   <si>
     <t xml:space="preserve">\key{Level 3: Lethargic} \imp{Speed} reduced to zero</t>
@@ -172,6 +169,9 @@
   <si>
     <t xml:space="preserve">
 These effects are compounding, so a Lethargic character has a 1d penalty to all checks (increased to 2d on mental checks), and has their speed drastically reduced. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You lose a level of \imp{Exhaustion} for every \imp{Long Rest} you take. </t>
   </si>
   <si>
     <t xml:space="preserve">Frostbite</t>
@@ -493,10 +493,10 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,7 +507,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,7 +645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="163.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
@@ -655,7 +658,7 @@
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -667,10 +670,10 @@
       <c r="H10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="0" t="s">
         <v>47</v>
       </c>
     </row>
@@ -781,7 +784,7 @@
       <c r="F17" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J17"/>
+  <autoFilter ref="A1:F17"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/Statuses/Statuses.xlsx
+++ b/CoreRulebook/Data/Statuses/Statuses.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$17</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$18</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -97,6 +97,24 @@
     <t xml:space="preserve">Target speaks in a dazed or slurred voice</t>
   </si>
   <si>
+    <t xml:space="preserve">Critical But Stable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A character takes this condition after being \imp{Stabilised} from the \imp{Critical Condition} status. These characters remain gravely wounded, but their condition is no longer degrading, and they will eventually recover. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Character remains mostly \imp{Unconscious}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taking any amount of damage places them back into \imp{Critical Condition}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This condition is removed when the victim has cleared one full \imp{Health Diamond}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovering health through any means other than a \imp{Long Rest} imposes a level of exhaustion.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Critical Condition</t>
   </si>
   <si>
@@ -109,13 +127,13 @@
     <t xml:space="preserve">At \imp{GM} fiat, the victim’s condition may begin to degrade, eventually leading to \key{Death}. This may be rapidly hasted by any subsequent attacks on the victim. </t>
   </si>
   <si>
-    <t xml:space="preserve">The target cannot regain health until this condition is removed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Removing this condition requires a \imp{Restore} spell of \levelFour{} or greater, or a \imp{First Aid Kit}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Every minute spent in the critical condition increases the minimum level of \imp{Restore} spell which can remove it.</t>
+    <t xml:space="preserve">The target cannot regain health until they are \imp{Stabilised}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\imp{Stabilising} a patient requires a \imp{Restore} spell of \levelThree{} or greater, or a \imp{First Aid Kit}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every 30 seconds spent in the critical condition increases the difficulty of ending the condition</t>
   </si>
   <si>
     <t xml:space="preserve">Deaf</t>
@@ -180,10 +198,10 @@
     <t xml:space="preserve">Cold temperatures can affect not just the body, but also the mind. </t>
   </si>
   <si>
-    <t xml:space="preserve">A character reduces their maximum \imp{Fortitude} rating by one. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the \imp{Fortitude} track is already filled, in addition take \imp{Level 5 Cold} damage.</t>
+    <t xml:space="preserve">A character reduces their maximum \imp{Fortitude} rating by one, and cannot recover \imp{Fortitude} through long rests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the \imp{Fortitude} track is already filled, instead take an additional level of \imp{Exhaustion}. This remains even after the \imp{Frostbite} status is removed.</t>
   </si>
   <si>
     <t xml:space="preserve">Poisoned</t>
@@ -207,7 +225,7 @@
     <t xml:space="preserve">A prone creature can only move via crawling, at half speed. </t>
   </si>
   <si>
-    <t xml:space="preserve">Condition can be ended by taking a minor movement action to stand up. </t>
+    <t xml:space="preserve">Condition can be ended by taking {\it either} a full movement, or a minor action to stand up. </t>
   </si>
   <si>
     <t xml:space="preserve">Beings may willingly enter the \imp{prone} status as a free action. </t>
@@ -223,6 +241,12 @@
   </si>
   <si>
     <t xml:space="preserve">They remain aware of their surroundings and can see and hear as normal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All \imp{Dodge} checks fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\imp{Block} checks use only the rating provided by equipped armour</t>
   </si>
   <si>
     <t xml:space="preserve">Terrified</t>
@@ -357,7 +381,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -367,15 +391,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -396,14 +412,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -491,58 +499,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="75.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -555,36 +562,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -594,197 +601,221 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="9" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="10" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="B11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="D11" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="G11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="H11" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="I11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>53</v>
+      <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="7" t="s">
         <v>57</v>
       </c>
+    </row>
+    <row r="13" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>66</v>
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="12" t="s">
         <v>71</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="0"/>
-      <c r="F17" s="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F17"/>
+  <autoFilter ref="A1:F18"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/Statuses/Statuses.xlsx
+++ b/CoreRulebook/Data/Statuses/Statuses.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$18</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$18</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -286,6 +286,21 @@
   </si>
   <si>
     <t xml:space="preserve">All subsequent resist checks fail. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surprised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This status is taken whenever a being is caught unawares – in either a combative or non-combative sense – such that their reactions to an event is impaired.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactions to the initiating event take a 5d penalty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A creature can take no  \imp{quickdefence} actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This status is immediately ended  at the end of the next turn cycle</t>
   </si>
 </sst>
 </file>
@@ -499,10 +514,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -814,8 +829,25 @@
         <v>85</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F18"/>
+  <autoFilter ref="A1:J18"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
